--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.7762613488139</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H2">
-        <v>21.7762613488139</v>
+        <v>66.076549</v>
       </c>
       <c r="I2">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J2">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.71346328686015</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="N2">
-        <v>2.71346328686015</v>
+        <v>8.329093</v>
       </c>
       <c r="O2">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="P2">
-        <v>0.2187114993402867</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="Q2">
-        <v>59.0890856950782</v>
+        <v>61.15085797111745</v>
       </c>
       <c r="R2">
-        <v>59.0890856950782</v>
+        <v>550.3577217400571</v>
       </c>
       <c r="S2">
-        <v>0.02353385286793121</v>
+        <v>0.02371057383786295</v>
       </c>
       <c r="T2">
-        <v>0.02353385286793121</v>
+        <v>0.02371057383786295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.7762613488139</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H3">
-        <v>21.7762613488139</v>
+        <v>66.076549</v>
       </c>
       <c r="I3">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J3">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.787447332844749</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N3">
-        <v>8.787447332844749</v>
+        <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="P3">
-        <v>0.7082888465257989</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="Q3">
-        <v>191.3577497089649</v>
+        <v>194.0057109470137</v>
       </c>
       <c r="R3">
-        <v>191.3577497089649</v>
+        <v>1746.051398523124</v>
       </c>
       <c r="S3">
-        <v>0.07621348467005123</v>
+        <v>0.07522358454151071</v>
       </c>
       <c r="T3">
-        <v>0.07621348467005123</v>
+        <v>0.07522358454151069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.7762613488139</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H4">
-        <v>21.7762613488139</v>
+        <v>66.076549</v>
       </c>
       <c r="I4">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J4">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.905676574132371</v>
+        <v>0.003041</v>
       </c>
       <c r="N4">
-        <v>0.905676574132371</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O4">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="P4">
-        <v>0.07299965413391428</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="Q4">
-        <v>19.72224977580494</v>
+        <v>0.06697959516966666</v>
       </c>
       <c r="R4">
-        <v>19.72224977580494</v>
+        <v>0.6028163565269999</v>
       </c>
       <c r="S4">
-        <v>0.007854928181551521</v>
+        <v>2.597060269621478E-05</v>
       </c>
       <c r="T4">
-        <v>0.007854928181551521</v>
+        <v>2.597060269621478E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>169.003063093542</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H5">
-        <v>169.003063093542</v>
+        <v>66.076549</v>
       </c>
       <c r="I5">
-        <v>0.8350888249877186</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J5">
-        <v>0.8350888249877186</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.71346328686015</v>
+        <v>0.003928</v>
       </c>
       <c r="N5">
-        <v>2.71346328686015</v>
+        <v>0.011784</v>
       </c>
       <c r="O5">
-        <v>0.2187114993402867</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="P5">
-        <v>0.2187114993402867</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="Q5">
-        <v>458.5836070712358</v>
+        <v>0.08651622815733333</v>
       </c>
       <c r="R5">
-        <v>458.5836070712358</v>
+        <v>0.7786460534159999</v>
       </c>
       <c r="S5">
-        <v>0.1826435289953822</v>
+        <v>3.354571765561713E-05</v>
       </c>
       <c r="T5">
-        <v>0.1826435289953822</v>
+        <v>3.354571765561713E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>169.003063093542</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H6">
-        <v>169.003063093542</v>
+        <v>66.076549</v>
       </c>
       <c r="I6">
-        <v>0.8350888249877186</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J6">
-        <v>0.8350888249877186</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.787447332844749</v>
+        <v>0.9921066666666668</v>
       </c>
       <c r="N6">
-        <v>8.787447332844749</v>
+        <v>2.97632</v>
       </c>
       <c r="O6">
-        <v>0.7082888465257989</v>
+        <v>0.0788408337623728</v>
       </c>
       <c r="P6">
-        <v>0.7082888465257989</v>
+        <v>0.07884083376237279</v>
       </c>
       <c r="Q6">
-        <v>1485.105516023939</v>
+        <v>21.85166159107556</v>
       </c>
       <c r="R6">
-        <v>1485.105516023939</v>
+        <v>196.66495431968</v>
       </c>
       <c r="S6">
-        <v>0.591484100597136</v>
+        <v>0.008472741884993753</v>
       </c>
       <c r="T6">
-        <v>0.591484100597136</v>
+        <v>0.008472741884993753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>169.003063093542</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H7">
-        <v>169.003063093542</v>
+        <v>507.673492</v>
       </c>
       <c r="I7">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J7">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905676574132371</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="N7">
-        <v>0.905676574132371</v>
+        <v>8.329093</v>
       </c>
       <c r="O7">
-        <v>0.07299965413391428</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="P7">
-        <v>0.07299965413391428</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="Q7">
-        <v>153.0621152004361</v>
+        <v>469.8288587225285</v>
       </c>
       <c r="R7">
-        <v>153.0621152004361</v>
+        <v>4228.459728502757</v>
       </c>
       <c r="S7">
-        <v>0.06096119539520033</v>
+        <v>0.1821709819862373</v>
       </c>
       <c r="T7">
-        <v>0.06096119539520033</v>
+        <v>0.1821709819862373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.19638647983871</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H8">
-        <v>5.19638647983871</v>
+        <v>507.673492</v>
       </c>
       <c r="I8">
-        <v>0.02567671970080639</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J8">
-        <v>0.02567671970080639</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.71346328686015</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N8">
-        <v>2.71346328686015</v>
+        <v>26.424676</v>
       </c>
       <c r="O8">
-        <v>0.2187114993402867</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="P8">
-        <v>0.2187114993402867</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="Q8">
-        <v>14.10020393737879</v>
+        <v>1490.567504432066</v>
       </c>
       <c r="R8">
-        <v>14.10020393737879</v>
+        <v>13415.10753988859</v>
       </c>
       <c r="S8">
-        <v>0.005615793863903643</v>
+        <v>0.5779511857519369</v>
       </c>
       <c r="T8">
-        <v>0.005615793863903643</v>
+        <v>0.5779511857519368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.19638647983871</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H9">
-        <v>5.19638647983871</v>
+        <v>507.673492</v>
       </c>
       <c r="I9">
-        <v>0.02567671970080639</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J9">
-        <v>0.02567671970080639</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.787447332844749</v>
+        <v>0.003041</v>
       </c>
       <c r="N9">
-        <v>8.787447332844749</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O9">
-        <v>0.7082888465257989</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="P9">
-        <v>0.7082888465257989</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="Q9">
-        <v>45.66297251268919</v>
+        <v>0.5146116963906667</v>
       </c>
       <c r="R9">
-        <v>45.66297251268919</v>
+        <v>4.631505267515999</v>
       </c>
       <c r="S9">
-        <v>0.01818653417945041</v>
+        <v>0.0001995350356467917</v>
       </c>
       <c r="T9">
-        <v>0.01818653417945041</v>
+        <v>0.0001995350356467917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.19638647983871</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H10">
-        <v>5.19638647983871</v>
+        <v>507.673492</v>
       </c>
       <c r="I10">
-        <v>0.02567671970080639</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J10">
-        <v>0.02567671970080639</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.905676574132371</v>
+        <v>0.003928</v>
       </c>
       <c r="N10">
-        <v>0.905676574132371</v>
+        <v>0.011784</v>
       </c>
       <c r="O10">
-        <v>0.07299965413391428</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="P10">
-        <v>0.07299965413391428</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="Q10">
-        <v>4.706245504928093</v>
+        <v>0.6647138255253334</v>
       </c>
       <c r="R10">
-        <v>4.706245504928093</v>
+        <v>5.982424429728</v>
       </c>
       <c r="S10">
-        <v>0.001874391657452329</v>
+        <v>0.0002577354883329818</v>
       </c>
       <c r="T10">
-        <v>0.001874391657452329</v>
+        <v>0.0002577354883329818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.77537622560681</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H11">
-        <v>3.77537622560681</v>
+        <v>507.673492</v>
       </c>
       <c r="I11">
-        <v>0.01865513227049335</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J11">
-        <v>0.01865513227049335</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.71346328686015</v>
+        <v>0.9921066666666668</v>
       </c>
       <c r="N11">
-        <v>2.71346328686015</v>
+        <v>2.97632</v>
       </c>
       <c r="O11">
-        <v>0.2187114993402867</v>
+        <v>0.0788408337623728</v>
       </c>
       <c r="P11">
-        <v>0.2187114993402867</v>
+        <v>0.07884083376237279</v>
       </c>
       <c r="Q11">
-        <v>10.24434478226872</v>
+        <v>167.8887519677156</v>
       </c>
       <c r="R11">
-        <v>10.24434478226872</v>
+        <v>1510.99876770944</v>
       </c>
       <c r="S11">
-        <v>0.004080091949270967</v>
+        <v>0.06509702042050412</v>
       </c>
       <c r="T11">
-        <v>0.004080091949270967</v>
+        <v>0.06509702042050411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.77537622560681</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H12">
-        <v>3.77537622560681</v>
+        <v>15.819283</v>
       </c>
       <c r="I12">
-        <v>0.01865513227049335</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J12">
-        <v>0.01865513227049335</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.787447332844749</v>
+        <v>2.776364333333333</v>
       </c>
       <c r="N12">
-        <v>8.787447332844749</v>
+        <v>8.329093</v>
       </c>
       <c r="O12">
-        <v>0.7082888465257989</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="P12">
-        <v>0.7082888465257989</v>
+        <v>0.2206324039768381</v>
       </c>
       <c r="Q12">
-        <v>33.17591974419404</v>
+        <v>14.64003103336878</v>
       </c>
       <c r="R12">
-        <v>33.17591974419404</v>
+        <v>131.760279300319</v>
       </c>
       <c r="S12">
-        <v>0.01321322211765394</v>
+        <v>0.005676511308627062</v>
       </c>
       <c r="T12">
-        <v>0.01321322211765394</v>
+        <v>0.005676511308627062</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.77537622560681</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H13">
-        <v>3.77537622560681</v>
+        <v>15.819283</v>
       </c>
       <c r="I13">
-        <v>0.01865513227049335</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J13">
-        <v>0.01865513227049335</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.905676574132371</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N13">
-        <v>0.905676574132371</v>
+        <v>26.424676</v>
       </c>
       <c r="O13">
-        <v>0.07299965413391428</v>
+        <v>0.6999729490580858</v>
       </c>
       <c r="P13">
-        <v>0.07299965413391428</v>
+        <v>0.6999729490580857</v>
       </c>
       <c r="Q13">
-        <v>3.419269806068377</v>
+        <v>46.44660309192311</v>
       </c>
       <c r="R13">
-        <v>3.419269806068377</v>
+        <v>418.019427827308</v>
       </c>
       <c r="S13">
-        <v>0.001361818203568438</v>
+        <v>0.01800916043809405</v>
       </c>
       <c r="T13">
-        <v>0.001361818203568438</v>
+        <v>0.01800916043809405</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.62626246650755</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H14">
-        <v>2.62626246650755</v>
+        <v>15.819283</v>
       </c>
       <c r="I14">
-        <v>0.01297705732144771</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J14">
-        <v>0.01297705732144771</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>2.71346328686015</v>
+        <v>0.003041</v>
       </c>
       <c r="N14">
-        <v>2.71346328686015</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O14">
-        <v>0.2187114993402867</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="P14">
-        <v>0.2187114993402867</v>
+        <v>0.0002416624981232283</v>
       </c>
       <c r="Q14">
-        <v>7.12626678452702</v>
+        <v>0.01603547986766667</v>
       </c>
       <c r="R14">
-        <v>7.12626678452702</v>
+        <v>0.144319318809</v>
       </c>
       <c r="S14">
-        <v>0.002838231663798672</v>
+        <v>6.217581274288171E-06</v>
       </c>
       <c r="T14">
-        <v>0.002838231663798672</v>
+        <v>6.217581274288171E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.62626246650755</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H15">
-        <v>2.62626246650755</v>
+        <v>15.819283</v>
       </c>
       <c r="I15">
-        <v>0.01297705732144771</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J15">
-        <v>0.01297705732144771</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>8.787447332844749</v>
+        <v>0.003928</v>
       </c>
       <c r="N15">
-        <v>8.787447332844749</v>
+        <v>0.011784</v>
       </c>
       <c r="O15">
-        <v>0.7082888465257989</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="P15">
-        <v>0.7082888465257989</v>
+        <v>0.0003121507045800858</v>
       </c>
       <c r="Q15">
-        <v>23.07814310666204</v>
+        <v>0.02071271454133334</v>
       </c>
       <c r="R15">
-        <v>23.07814310666204</v>
+        <v>0.186414430872</v>
       </c>
       <c r="S15">
-        <v>0.00919150496150737</v>
+        <v>8.031127670307115E-06</v>
       </c>
       <c r="T15">
-        <v>0.00919150496150737</v>
+        <v>8.031127670307115E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.62626246650755</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H16">
-        <v>2.62626246650755</v>
+        <v>15.819283</v>
       </c>
       <c r="I16">
-        <v>0.01297705732144771</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J16">
-        <v>0.01297705732144771</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.905676574132371</v>
+        <v>0.9921066666666668</v>
       </c>
       <c r="N16">
-        <v>0.905676574132371</v>
+        <v>2.97632</v>
       </c>
       <c r="O16">
-        <v>0.07299965413391428</v>
+        <v>0.0788408337623728</v>
       </c>
       <c r="P16">
-        <v>0.07299965413391428</v>
+        <v>0.07884083376237279</v>
       </c>
       <c r="Q16">
-        <v>2.378544393438989</v>
+        <v>5.231472042062223</v>
       </c>
       <c r="R16">
-        <v>2.378544393438989</v>
+        <v>47.08324837856001</v>
       </c>
       <c r="S16">
-        <v>0.0009473206961416625</v>
+        <v>0.002028445850957949</v>
       </c>
       <c r="T16">
-        <v>0.0009473206961416625</v>
+        <v>0.002028445850957949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.714610333333333</v>
+      </c>
+      <c r="H17">
+        <v>17.143831</v>
+      </c>
+      <c r="I17">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="J17">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.776364333333333</v>
+      </c>
+      <c r="N17">
+        <v>8.329093</v>
+      </c>
+      <c r="O17">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="P17">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="Q17">
+        <v>15.86584030836478</v>
+      </c>
+      <c r="R17">
+        <v>142.792562775283</v>
+      </c>
+      <c r="S17">
+        <v>0.006151805397544957</v>
+      </c>
+      <c r="T17">
+        <v>0.006151805397544957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.714610333333333</v>
+      </c>
+      <c r="H18">
+        <v>17.143831</v>
+      </c>
+      <c r="I18">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="J18">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.808225333333333</v>
+      </c>
+      <c r="N18">
+        <v>26.424676</v>
+      </c>
+      <c r="O18">
+        <v>0.6999729490580858</v>
+      </c>
+      <c r="P18">
+        <v>0.6999729490580857</v>
+      </c>
+      <c r="Q18">
+        <v>50.33557550819511</v>
+      </c>
+      <c r="R18">
+        <v>453.0201795737559</v>
+      </c>
+      <c r="S18">
+        <v>0.01951706679769054</v>
+      </c>
+      <c r="T18">
+        <v>0.01951706679769054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.714610333333333</v>
+      </c>
+      <c r="H19">
+        <v>17.143831</v>
+      </c>
+      <c r="I19">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="J19">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.003041</v>
+      </c>
+      <c r="N19">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="P19">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="Q19">
+        <v>0.01737813002366666</v>
+      </c>
+      <c r="R19">
+        <v>0.156403170213</v>
+      </c>
+      <c r="S19">
+        <v>6.738179132085887E-06</v>
+      </c>
+      <c r="T19">
+        <v>6.738179132085887E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.714610333333333</v>
+      </c>
+      <c r="H20">
+        <v>17.143831</v>
+      </c>
+      <c r="I20">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="J20">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.003928</v>
+      </c>
+      <c r="N20">
+        <v>0.011784</v>
+      </c>
+      <c r="O20">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="P20">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="Q20">
+        <v>0.02244698938933333</v>
+      </c>
+      <c r="R20">
+        <v>0.202022904504</v>
+      </c>
+      <c r="S20">
+        <v>8.703573703003409E-06</v>
+      </c>
+      <c r="T20">
+        <v>8.703573703003408E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.714610333333333</v>
+      </c>
+      <c r="H21">
+        <v>17.143831</v>
+      </c>
+      <c r="I21">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="J21">
+        <v>0.02788260149760581</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="N21">
+        <v>2.97632</v>
+      </c>
+      <c r="O21">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="P21">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="Q21">
+        <v>5.669503009102223</v>
+      </c>
+      <c r="R21">
+        <v>51.02552708192</v>
+      </c>
+      <c r="S21">
+        <v>0.002198287549535227</v>
+      </c>
+      <c r="T21">
+        <v>0.002198287549535226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.714833666666667</v>
+      </c>
+      <c r="H22">
+        <v>8.144501</v>
+      </c>
+      <c r="I22">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="J22">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.776364333333333</v>
+      </c>
+      <c r="N22">
+        <v>8.329093</v>
+      </c>
+      <c r="O22">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="P22">
+        <v>0.2206324039768381</v>
+      </c>
+      <c r="Q22">
+        <v>7.53736736306589</v>
+      </c>
+      <c r="R22">
+        <v>67.836306267593</v>
+      </c>
+      <c r="S22">
+        <v>0.002922531446565841</v>
+      </c>
+      <c r="T22">
+        <v>0.00292253144656584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.714833666666667</v>
+      </c>
+      <c r="H23">
+        <v>8.144501</v>
+      </c>
+      <c r="I23">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="J23">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.808225333333333</v>
+      </c>
+      <c r="N23">
+        <v>26.424676</v>
+      </c>
+      <c r="O23">
+        <v>0.6999729490580858</v>
+      </c>
+      <c r="P23">
+        <v>0.6999729490580857</v>
+      </c>
+      <c r="Q23">
+        <v>23.91286667851956</v>
+      </c>
+      <c r="R23">
+        <v>215.215800106676</v>
+      </c>
+      <c r="S23">
+        <v>0.009271951528853579</v>
+      </c>
+      <c r="T23">
+        <v>0.009271951528853578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.714833666666667</v>
+      </c>
+      <c r="H24">
+        <v>8.144501</v>
+      </c>
+      <c r="I24">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="J24">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.003041</v>
+      </c>
+      <c r="N24">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="P24">
+        <v>0.0002416624981232283</v>
+      </c>
+      <c r="Q24">
+        <v>0.008255809180333333</v>
+      </c>
+      <c r="R24">
+        <v>0.074302282623</v>
+      </c>
+      <c r="S24">
+        <v>3.201099373847808E-06</v>
+      </c>
+      <c r="T24">
+        <v>3.201099373847808E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.714833666666667</v>
+      </c>
+      <c r="H25">
+        <v>8.144501</v>
+      </c>
+      <c r="I25">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="J25">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.003928</v>
+      </c>
+      <c r="N25">
+        <v>0.011784</v>
+      </c>
+      <c r="O25">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="P25">
+        <v>0.0003121507045800858</v>
+      </c>
+      <c r="Q25">
+        <v>0.01066386664266667</v>
+      </c>
+      <c r="R25">
+        <v>0.09597479978399999</v>
+      </c>
+      <c r="S25">
+        <v>4.134797218176321E-06</v>
+      </c>
+      <c r="T25">
+        <v>4.134797218176321E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.714833666666667</v>
+      </c>
+      <c r="H26">
+        <v>8.144501</v>
+      </c>
+      <c r="I26">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="J26">
+        <v>0.01324615692839319</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9921066666666668</v>
+      </c>
+      <c r="N26">
+        <v>2.97632</v>
+      </c>
+      <c r="O26">
+        <v>0.0788408337623728</v>
+      </c>
+      <c r="P26">
+        <v>0.07884083376237279</v>
+      </c>
+      <c r="Q26">
+        <v>2.693404579591112</v>
+      </c>
+      <c r="R26">
+        <v>24.24064121632</v>
+      </c>
+      <c r="S26">
+        <v>0.001044338056381751</v>
+      </c>
+      <c r="T26">
+        <v>0.00104433805638175</v>
       </c>
     </row>
   </sheetData>
